--- a/docs/data/informacion_diresa_fallecidos.xlsx
+++ b/docs/data/informacion_diresa_fallecidos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve">Responsable</t>
   </si>
@@ -44,15 +44,147 @@
     <t xml:space="preserve">Fuente</t>
   </si>
   <si>
+    <t xml:space="preserve">JPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANCASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital III de EsSalud de Chimbote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diresancash.gob.pe/portal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital regional Eleazar Guzman Barron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional Eleazar Guzman Barron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Victor Ramos Guardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domicilio</t>
+  </si>
+  <si>
     <t xml:space="preserve">RJJ</t>
   </si>
   <si>
+    <t xml:space="preserve">APURIMAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cáncer de prostata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital II de Abancay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://larepublica.pe/sociedad/2020/04/25/se-incrementa-cifra-de-muertos-por-covid-19-en-regiones-del-sur-arequipa-apurimac-tacna-lrsd/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabetes mellitus tipo 2,prostatitis e infección urinaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Sub Regional de Andahuaylas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/s960x960/93979259_853800998433313_1021592447056084992_o.jpg?_nc_cat=109&amp;_nc_sid=110474&amp;_nc_ohc=wwh84dU5nt8AX8ZoM1G&amp;_nc_ht=scontent.flim10-1.fna&amp;_nc_tp=7&amp;oh=8e14f1786a65de6d91c2122a32e28a4f&amp;oe=5EC45226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREQUIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Goyeneche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/photos/a.873873296059170/2842647769181703/?type=3&amp;eid=ARAAFtqP5fDKB2UR0QDnvMdGoR8vKlHK86T9a8HariDuMkO8oHTipBvrgI7h6G9--Gnm5VGkzTmVZBus&amp;__xts__%5B0%5D=68.ARASQJ6qd2KZeJH0z9LNLs_swj6zG-RkGASh4ShEjDJ1BmuzoAeYFQYqgL_WcsGQcEkgri8YQZlF-V8gyqwTBL3aOkShiEiX3kemwi20tlkTJbPVtqWvvkqAOqHQOo7WKBmm0Oj1ihmahBl67MQybeCOFRQFN4lAap4rAdff3XwRaJO_V_ML_cs8FXeFBQWPjG2_dHO5zaSHb_lmeYLg85e-LtUJ1E0I-5bRzQjnupLvDemrGxBgZyiubywsa9pgESKakk9GXK9eKjWC4bhtS1lF70phTy_npH34Qu6C-fj1M212UujkfbZoMkQZzwaK78TQB9TaDngHUQR67kyfsWYccQ&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Carlos Alberto Seguin Escobedo de ESSALUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Central de Majes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/photos/a.873873296059170/2838120996301047/?type=3&amp;eid=ARB4PRgvKmDnnXeUWrl2-MlSesmdSZgL1cv0m9B2cPDM1Xcq7gUPNwwCc0CCm2iSAtX_YQrJ7HCBETHj&amp;__xts__%5B0%5D=68.ARAp7AxTzsw6BqwN7GTH8klEbTVr_Y1s8CaBdhD4jMUoZwT3Zmv0ONLWKHV4dyQhb_JX6bdNYrxs7OXK_DqyNqWVHAun1WyA7yqCA4TNyp6YfyIwCA6GpBhVeYHMcLn58VRZf35BKxkMvAkHfIJq_bCHAWU6Ay5NTumz87KMeXWXir-sGOBSiIc6V6KenTBdq1E-JArcApMqtY5bB7zwTAsdpJPRJ0lPszzTN1MmdmDAon0NOp_1yiG7k4BJf6JkZfbwJEAxTBsZ1E6mE7gyCDZ5x_22Xs_kPUAPDVQuYSqQccGM0OhQQmvn4gmxJqVy3IIOh_LyfoFq6qdco-LPtE0Xmg&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/111750-minsa-lamenta-el-sensible-fallecimiento-de-nueve-personas-por-infeccion-con-covid-19-comunicado-n-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanidad de la PNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intoxicación por organofosforados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/photos/a.888177091295457/2868042699975543/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYACUCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipertensión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de Apoyo de la Provincia de Huanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/saludayacucho/photos/a.126637550826967/1588400757983965/?type=3&amp;eid=ARB0vmVfiTGvJw553mHbbJUYI5DBTCBtJTe8pJKRzUdeYDlIiA8MRbnx0l33_S0EoACqJZ0dNa3k7DEt&amp;__xts__%5B0%5D=68.ARBPGL0YyH-sh6V7f5pukV6MJOL-Rur9JV59Puj7InUX4zLQX0X0-TJ3HkmZyVnvfnydkrMHROVKb7V1DXbJR2uQVSNv1XvVyU1OAaQuKp3sikSmcKAv0BUYO7BTlvfra5UshmCRSJ-cfGoJZJ_Z_CIjb_QANOwEwyAoNyZwqH8k4omK5y_x04SvRo6mpyc7qoDtjV_nWRKwTJpucVPKQ9auiw8Q0_4l88WfuiR4RCwizrx3g9fFbE_LDeJlsii0YwjXXQYR00ttrpJhKE1yWd_F33_uu_C0qmJVc6BYUn4fTC7038kskQ7frhx4atvaEXrD232Qy4DB8RHrOXC7NokpWQ&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAJAMARCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obesidad mórbida y diabetes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Simón Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresacajamarcaoficial/posts/2850732971677648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Simon Bolivaró</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/225561424194829/posts/2857404431010502/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Simon Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresacajamarcaoficial/posts/2857404431010502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.diresacusco.gob.pe/new/</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUANCAVELICA</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
     <t xml:space="preserve">Síndrome de Distres Respiratorio Severo,Síndroma de Disfunción Multiorgánica respiratorio,renal,hepático y hematológico,diabetes mellitus tipo 2</t>
   </si>
   <si>
@@ -62,102 +194,213 @@
     <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/p960x960/91964229_821929531638577_3564046402902294528_o.jpg?_nc_cat=111&amp;_nc_sid=110474&amp;_nc_eui2=AeFdXAhdNU7fNIdg-1TYVx4fHJIeWgBWA9Uckh5aAFYD1chgL12NHSySdadG7ymZfU9_AmdR8917qZ0doF69rlGH&amp;_nc_ohc=MmvLgyNpHWgAX9TAGWF&amp;_nc_ht=scontent.flim10-1.fna&amp;_nc_tp=6&amp;oh=825d8494e17a9315a4d99becaa84f132&amp;oe=5ECD32B2</t>
   </si>
   <si>
+    <t xml:space="preserve">HUANUCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional Integrado Covid-19 Santa María del Valle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresa.hco/photos/a.203599653130693/1663497813807529/?type=3&amp;eid=ARBYJrKRBRi9L689Gf54VJHv_GoNes-7zBQVz-CFgmpe3TCV4QiX_xS3N4OTX2rE-_VrdS00YWlwPMei&amp;__xts__%5B0%5D=68.ARCK5pfYb4Wyg0ETBspcH7KAX4gjHyMRhO2skdijQnVtvZVPW9_Mlt2_BqUDCTfGDGcDK7_dBNmf49p1jGn2QNHN9mZdMjfYkZPjUCr13hfM_V8QA0D8VGjYQRIWuXk7DYN_u10xuA6AROIPt2cFKCeAW9wR-nKU1rHd3LSa7KsRhQDKYDjmbePy_RTcg_r4zye44h78nHfwiI4ImHABcwhrN9t9yvAV8Bz0YUlkyOuaYPeAF_MNsA_SLANpMzjM8w48e0R8QJ9vXy1aY0XWOO5lWZn8tgi8iy3BMYWlsJTiPl973zPHCs_aj25PIn8kEVFjSB7ERNzEjLW4Guin_cddWA&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresa.hco/photos/a.203599653130693/1662650070558970/?type=3&amp;eid=ARAcVHq9iDsTA2buF7cIl9Raqgf3VSsqitsbTJNllkvJNqrvncFjre133LhJljd0jDE4drX4gpMx7SsF&amp;__xts__%5B0%5D=68.ARCetQoONd7104BpQP96VEaH-OCEhawQqOS4adJvfXseyU1ZawPn6xH2tBCnaDP1snJh6_aRpJs-_4vqse7GqddUQKDvx7zkoEZXq_vULzoOmd8M0ZV40tFmgQk0HYltkQ10DiXknCKxbtM0cl0Ar0jA2aJ6OARQHtBokvXsTElbkBXAN8i7h5U5IkqHEZWFsOcUOnX4fLzcGHsBapAKXxdrlX9JHCsJoETpcYYnFqjMTOuXDyG59Bl8Rtj-9YOabN3I13Xn8bHgeDvbs51YI0C4wsKXWN3TEgRDF7UMzo7qhQzYc33lVZwbb1NERlAXHTbt4ZSMMHQyk5Ll5Am2e4lM&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemiplegia Secuelar a ACV isquémico e hipertensión arterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresa.hco/photos/a.203599653130693/1659894290834548/?type=3&amp;eid=ARCYgIpICzGAXvSRCq_xK_8hUMD4OMVJehWEe62CioO4PB9n8aZVuENY7067_-6YFkW7BAUbYGgWLI7b&amp;__xts__%5B0%5D=68.ARCz-MSn7XRfc2qnFrdB8PvKwVaKtOcKa9SB5eHSabbOcVDr98Ud56km9wktOr1c7eQH3KMe8qiKMMUPlcnM5G6QPW5RJlsaa_XW7L1-x5ruQ6x-esu3ulRAon4grWWAaIAQ-hsYuaxvNuw6FQSywzvwRoDPusaHktzl0lppnsjDYMTlpL40fr_pZjvl-1t-89U9_Gl82VVLs3RV8x0UGccuiDi0YaBeyrIgw2ZAFYQBhxnREcwdZB364vNjERtbDbCwYbhxYXg8qDTGr11EvppsiUpo1R_2Adu4XjUd2VKIWMMXQh1ac_5V5UApC4moMjdtQueynCUTg3NopMrKwzVYzw&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital EsSalud de Huánuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresa.hco/photos/a.203599653130693/1658785274278783/?type=3&amp;eid=ARCUaxvc_-YuAx0Xhpogg2xSsh489ODDbhKKn_x6QM8T7dkPeImhRgJ4amcW6k78VMoZpJYS3PjVqHS_&amp;__xts__%5B0%5D=68.ARCK8etZk_DFbISuy0JQHofH9G0o-w8fAFyp4_ss-hA47kX1DIeCwvtd-L4VRy1bOUYi1TOmqoWKLJrMPJyyFQ5FdS1nW_2I_hVm4yM7noii1dyP3NQV3oAHrExxRq01uTXGtE0Rh70O6pN4N__LGvPyimthyGaDgN2ZOqvWwzIBT2i8MCdOFPbueu0lOuT6pIYkmuP_PcHMmFiKAc5gAZ8UnHlL8N1M49fiEp_wHAK8aFAeh7JAlKMjamZheavuBXCk0IxW83MBBTZIv8dhaSjOOpJu9wL_1GXGJCuT5eyJ4zdDbbUL5tZXD8DCTv0gVXsTnib3_WzW5CHe3yCz4_JnLg&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Nacional Ramiro Priale Priale -Essalud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional Docente de Medicina Tropical JCDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA LIBERTAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional Docente de Trujillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/111529-minsa-lamenta-informar-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de Alta Complejidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/GRLaLibertad/photos/a.884179731605039/2993777047311953/?type=3&amp;eid=ARD9CvZAOecSZYOeGM1UFSshxkcwCL7o5mvoGP7sloP4PaUdmqSSTRsHBdb08efN-xcBX4ddPFGebMZ_&amp;__xts__%5B0%5D=68.ARCldH_hzOagkI3koizOnZz3AW7rYJdpRJhSFGTG39EdvEYE-np5hT2GSYj2QecvUqlg1IKcBfySC4c9gzIoTUa0akKiidqAFeq96WjF_vwQBjhADU0d1DohZ9heOOT6wsLDXS6rA818E-H-5PRuiG3lv-iQHwSr5Jxcg8IMDCFD_NiipQXHS1Z-NxvAAVmowm2SVXRsjwltO8iTRz54xCczXCK2hvy_CsT4J-Pc9hUNenu1TPUH_kgEavYzWTe4LZmf0B8HNzbf4fRkfUVqH5w8QIc_GlnOOT_9N-cbDPLqmdVDlv1lwemiNDNzgg0S0el_8llpAL07JjR_zG8H0pud8w&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Virgen de La Puerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pbs.twimg.com/media/EUjkC3RWoAUrRQr?format=png&amp;name=900x900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/p960x960/93143400_3042156025807388_534911586574270464_o.png?_nc_cat=1&amp;_nc_sid=8024bb&amp;_nc_ohc=EMR0eLI-p8cAX_ZwwLn&amp;_nc_ht=scontent.flim10-1.fna&amp;oh=58fc5153c886f2399460dcb4dde7aa3c&amp;oe=5EBAE843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/p960x960/93691584_3039767969379527_7966036643171794944_o.png?_nc_cat=104&amp;_nc_sid=8024bb&amp;_nc_ohc=n7KP4Cth8AoAX9EdDZx&amp;_nc_ht=scontent.flim10-1.fna&amp;oh=596717d4a6701a5daecf8634a31ab999&amp;oe=5EBC3E7F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMA PROVINCIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de Chancay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3066800496710577/3066800396710587/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional de Huacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Rezola de Cañete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital II ESSALUD Cañete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de Ate Vitarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3068490689874891/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pb.481175221939797.-2207520000../3076203655770261/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pb.481175221939797.-2207520000../3075737945816832/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3080699851987308/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.481187195271933/3080697071987586/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.481187195271933/3080679831989310/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital II Gustavo Lanatta Lujan ESSALUD Huacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3085242148199745/3085241941533099/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3085242148199745/3085242014866425/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3085242148199745/3085242104866416/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3085819911475302/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3087388347985125/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional de Loreto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1115866305467061/?type=3&amp;eid=ARAIYgY1wqcPtdRn0Wwt8IAkbWz_cHtiYgIWDsOttTr8wQgAPHW2lc08f5BRrU_nojbBVDp84_9CTiL4&amp;__xts__%5B0%5D=68.ARBw1WqF4EXqMpX6PkNCDDF_8LsS6RskuCEhFyKp2ft7nvFt6xTKQzCdJDxqusRGxpsEC3rP0J8wh8HGI4B6Pyt7AbDNk0NQCQ6WM8eJqvbIqlRUi8nB1tb_1cUGv04WzbrnXmkyu4l4AGXeJ4YEbznUXyv_Uq8bog2_F12mM_CJKP-mw6xnmiqAY_bqA-zLZRpfTosTSCAab1NEQ8wuFVWp2RU_bAQk5m1eBl-Q8u5brXUyhJwhdZhXUr6-ARoIUGFx8wlwoHlcI5FJ-cmjAHXpc87FqWXAwbjzzdLOeSoMvyM-KFjuwz8Yd8giAizolgkx3s1ABQm5sSMMV5RZkpBIxw&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipertensión arterial,diabetes mellitus tipo 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1115061248880900/?type=3&amp;eid=ARCBLkRbA6DA4ZimYXp-mB2UzJI5CwL8WS3mOBy_zjQ8DW8pA9qp3cnHSTLoMN2rfnpNkcJNQqlUPH4q&amp;__xts__%5B0%5D=68.ARAPQOTneAmtLa22bOj3YK5xa8HXXKBpcDEafBtiXemZm-LYnmZ1CMjbADgQCQXtlqbuzFBrH42IlxeXO18SlMm1MyjXrLthrKIHpCO33Nk8L80-kg0FTh1c4Z4SNTvWSvh0wNdh9ZZ7fEocv3dE59kAIOzuvS6SjEtJVxYMZ34hawVZJlpQkNJ-JbBNt6Y-SWwKE40iXFS_5RaTJOhKSJ8wEBa6l5MM9cmiOHZP24Rr5xVsgnsje2VTdj4iFfpSc9qbmJs9fCZ-WTFBHyEffomiDDXbtU6QBcpuDeUhrQFCgdc0Ad0QPIgwqrG8Mc7p895ofYILvFifglgQQDmOibFWPw&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipertensión arterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1113959772324381/?type=3&amp;eid=ARBXawXU6bOQ4xFYlYjo65Y_YQyJRP4hua1-0CZTRga2Am90zb6Oce33vlb22543Gl38h1gL5GcRJjf4&amp;__xts__%5B0%5D=68.ARDDhMEATbp1VtbuptrokBNKKPZA1YMRac-S-aY3y8sTrxRLZPbqtiv8f4UbnAnuEjn6QeqdUYWAQ7c8lGpceQgKXruxY94284-HdbNzfmaMPlBuI7jXwa2MQEISlub925X6yabdYc-B6i7cfG3Z3xodEEr0EmEbrV9SnXhA0gvaZgndeSq5bSoLGk-AZ8Q7vgMmWk9OxMpKX2E4GzUQiyWEFxnCRgVnYjvmqSTxQm0uYnHb8UiKRJarcY_pa7D8hnwiDsH9yEAtLjxzyAJk-xK2HcHvQmYBXs6lOl5YcKToeou56K-qw9Jib97ujz-C_igIKG5gzSXSGoIbNFuYjK8jFA&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1112995489087476/?type=3&amp;eid=ARDSY6LVXNVAFd-RJZ8m4HwH3KCpIz-1eXbIirfGrwJUqerjSQkKH_oGkekUioy_4vbQZ0V8lw3SzPCu&amp;__xts__%5B0%5D=68.ARA4qkEgzD4vGTvl0M81JXxUXndfE1ZK9ZyKfu2abTDTzy6d_NpFG2Pyr8QHRQ8Ezp5fQbn41F-wy2V5pH5N24p477hoMm4C2xbyx-BhPB-JOcxLX40Q4XzYQSTGvK4OpEMFyc5nY95bKFEWt-f5io9YYQRmO_dzm35fqGK1G-KAkzsleGYA6gzuCX0VaidwbAmYQ5ji3iHiysiILhXTLhO7O1cE_QrISIMGjEcjtpRQ6Bpynzeq9MPdGOooM-nDS8SYbjEZwQaPzK1OXfJLudQZ0OdJhEGGb6a9uoqqHZKfAWH2WTd8OXFEXDFaPdIVj6qpldUXqG80vaZ2JNlsIOm53Q&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital III Iquitos de EsSalud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1112512512469107/?type=3&amp;eid=ARAzjvHK1HvdzOShTTyAiM3zfwP4PsOYS0epFwOqLZ9X7MomNQz2Wwwa7gqHEaD8415LboL92UuKEKuA&amp;__xts__%5B0%5D=68.ARBGtGAe03bxJVrLxDYxBcbQ7q0DjvpL9t59jhpiKcfIKBeuOLxSsWHDILWHtHFUQKaO_h9ljH_nduQWheheOQ_sl71aWxNDy5yncwrtocMmBg_rJhqY_P2gDmVMYCxm0OrSwfmKxbYUgDIDqYPf0sjBMtffGchqJV1MxVEA3xxGOm3NqHn-NC0qKv-PS1CQqxKCBhSfKeoF7gMhh8IGaS5HDtnD_X58F1k_ZPkmeN8AHa6rXu-badyTRifpTA9ZJoMpdDx9uKI58qNwsFiS3RH-2R8BM2H2c720K3qfubs3i7WNE9Whi7R--k4rsJsDtWTPLDJb5sSr2R3yr6Mj5yArYQ&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedad pulmonar cronica,Hipertension arterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1111718969215128/?type=3&amp;eid=ARAGuIXuPOjebVI9rc2Dw4nEJhZMhI-VP8Z01WVwnDH8D7DWAvLQv3xm8OjJkZZr7DXvuZLNdWgbSxKi&amp;__xts__%5B0%5D=68.ARAQ3N8EP97wCL0SSyZDSv7KB1qPiIEQgdkOv2JJkQYC_QaDtv8g6JGgqd5fN8nlbTmGhmEWy2_GeQijbTrKN59zsPl_cY9f6Ko8h0NR7cUFh5EIr6Vd7sqAg3UBxTA7xvf2TXyTO9Iwu6l_kN521FMfmXgxhffumc6xyeSov3TbMQxmnInsiw8hKawkU48TnDn05JEcp4I1gk_OFGqXkdIUFE-3-B5cCx5VWQzdu1cqBG8Y0bWGL5q7S-wNRgO4iUpe0b6aKVJFjY-tCqo_k5KZSQ8lg_a5SDijzJz-GYVCq_A4GVs095Ow6SOrAucmv-Cw8JIn7NFj0mMZnK2HscoY8g&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipertensión arterial,diabetes mellitus tipo 2,cardiopatia isquemica,enfermedad renal cronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1111046729282352/?type=3&amp;eid=ARC1OKabr2HfseGem9qn73oohegklPsA2TiK5w3bIuFKT0-baKfZmVePVmL1JDNkHEdIHNoDm0_hoQcO&amp;__xts__%5B0%5D=68.ARDUYQ73KGHJreDWk--UdceHOn3OqO7CgSKJw3pMajUxmJKbuGjV2AVGkBLP3KNorY0HIwoPjoAVGf4DyHBC9U8aEMRxy_qHmpcWvG0vFxE0FYdrmZaDn96DaQD3JDpAtkXoltIXob9Jf-kqrqhbMlOW_9PCv8i-3EuS1fTJPjmYSrOy_8RTlo9lyI_c4TpEvCFF-IYEjp0Y6GxE0uUReg4XpPhFpuoAg_LtrrF90tw7AYYFW0WC8mDB9kzRKC1P6OtjWZ-YMDqau3NcZKkgUD2taEGoo5ieeMCY2gAxoGKgf0yTjrv1UQO_tBHfwvHphhXuv9fpmBnsoEYwenOb0jn7OA&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabetes mellitus tipo 2,asma,Obesidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1109343522786006/?type=3&amp;eid=ARDSxjwbSI_MWZgl7rWTRx55B3yRanuGj9qOKD9pey3bG7vQkw5gfpko9MFd2QgBb_Nyz_sUtaG7RKtN&amp;__xts__%5B0%5D=68.ARDk4Qv6JXi8QlinJ5CFl3GQHVjjnMytmDz2rYPHqHCtAAHAHxjcHVMi_HRyJKRk30qmr6GOasDxq47sO_Au_SAWppEqjDTVmC_mUYX-CVNgAnkNdWbwEO_Hf-P1EknXkFqwaIhU8cV2QUCbH1gYuSfbJb7j4ucKnMdJzeduxsnlVE0oXYCnDMKku16jeFv5HoieMJEUrFzN1COIxizlXST7l81_xkDv83PGpKcfSlP33diwLzSOiEhk7pI7EatuVZccr76GqyQvDO2QtvUzqKWAfwxWcyFYquZE0w89tvXDI8XppxK1HWr1d3_MEecPOcmiqlrGMDXSel0k2yJpiPmbKA&amp;__tn__=EEHH-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obesidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabetes mellitus tipo 2,Obesidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Regional Daniel Alcides Carrión García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaPasco063/photos/a.451754444984919/1495870670573286/?type=3&amp;theater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/DiresaPasco063/photos/a.451754444984919/1498828016944218/?type=3&amp;theater</t>
+  </si>
+  <si>
     <t xml:space="preserve">TACNA</t>
   </si>
   <si>
+    <t xml:space="preserve">Cáncer Gástrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Hipólito Unanue de Tacna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/regiontacna.gob.pe/photos/a.571646046229494/3050271325033608/?type=3&amp;eid=ARBqbBk9hVnXjenYRIguE4pU4fmT9lBIiunrxBSONoZodhZgQaFunhnh8pcYcpmaLFdVawzAI7jTeC26&amp;__xts__%5B0%5D=68.ARDEJIUtCkbEbZyrhkR0knEYn9vFkID5omhXUwiHJA6xuRKPnjN9suzzKS1cTx8FqLTpOLLF8HlQ8ULZlFLhhItuXaJ-2vC20Ik2IRzbVqpkWWJ7bJOhTj82pYiodF6XlT2NTlUr9qAC_KoGD2VS_T16SPFj_aVAr61dc_6G_096x7RUswedAaPcyRkc0i0GDV9DlyDuSRYfC5mljw51wBRPksFmZjI73IwSnTlqTjDRQgTrfTw5PB_SZbHjR5vKgVjnjPVQHiju9tPfhz8rPpaX4Z9cZisla_iWo7uniUIBo35wM-ddJlkbVwvge8PcGgRgo_-5pVVI1__bXKmu04BiNQ&amp;__tn__=EHH-R</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuberculosis Pulmonar</t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital Hipólito Unanue de Tacna</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.facebook.com/regiontacna.gob.pe/photos/a.571646046229494/3029598850434189/?type=3&amp;eid=ARCYt5acfXY3l0Y89aEGSJhz5IgCJMNbWvuTbB3ChcJIctNpPTSOhLqGhZZbawcIW3TjSZ2NWNGd70Z3&amp;__xts__%5B0%5D=68.ARBdg8tkNmRXEGilVjIt6jkz6BVRWdQepKLW0Cha5VQooAMFp5nMNzqmFbVHLG2DyMIzvaMqxO95S2AalEL8LlOwZakFNtBJR8kba3ReedXocfTZX9yRUQa3N1sP7WKUa5jvumKbzAcXtSO_6n_SfXlax3leB5HZCukYPUheowv00QDaMMXTJSjA8mX21NuXRe9th4TLNr8q11gJSW46LE0uKZwATAJGl1SVYwfymZt7SPDj1iTJbnrNo_0bwa-fojBzGrR0FDEkKpCKKdVpl-K_EvFeaDYifV9Iw3XbNaAj-fSMksAxF_VWX_qk9Eh_bcXZPCMv5qfnmHQ4NRCTkhhHfQ&amp;__tn__=EHH-R</t>
   </si>
   <si>
-    <t xml:space="preserve">APURIMAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cáncer de prostata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital II de Abancay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://larepublica.pe/sociedad/2020/04/25/se-incrementa-cifra-de-muertos-por-covid-19-en-regiones-del-sur-arequipa-apurimac-tacna-lrsd/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diabetes mellitus tipo 2,prostatitis e infección urinaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Sub Regional de Andahuaylas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/s960x960/93979259_853800998433313_1021592447056084992_o.jpg?_nc_cat=109&amp;_nc_sid=110474&amp;_nc_ohc=wwh84dU5nt8AX8ZoM1G&amp;_nc_ht=scontent.flim10-1.fna&amp;_nc_tp=7&amp;oh=8e14f1786a65de6d91c2122a32e28a4f&amp;oe=5EC45226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Regional de Loreto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1115866305467061/?type=3&amp;eid=ARAIYgY1wqcPtdRn0Wwt8IAkbWz_cHtiYgIWDsOttTr8wQgAPHW2lc08f5BRrU_nojbBVDp84_9CTiL4&amp;__xts__%5B0%5D=68.ARBw1WqF4EXqMpX6PkNCDDF_8LsS6RskuCEhFyKp2ft7nvFt6xTKQzCdJDxqusRGxpsEC3rP0J8wh8HGI4B6Pyt7AbDNk0NQCQ6WM8eJqvbIqlRUi8nB1tb_1cUGv04WzbrnXmkyu4l4AGXeJ4YEbznUXyv_Uq8bog2_F12mM_CJKP-mw6xnmiqAY_bqA-zLZRpfTosTSCAab1NEQ8wuFVWp2RU_bAQk5m1eBl-Q8u5brXUyhJwhdZhXUr6-ARoIUGFx8wlwoHlcI5FJ-cmjAHXpc87FqWXAwbjzzdLOeSoMvyM-KFjuwz8Yd8giAizolgkx3s1ABQm5sSMMV5RZkpBIxw&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hipertensión arterial,diabetes mellitus tipo 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1115061248880900/?type=3&amp;eid=ARCBLkRbA6DA4ZimYXp-mB2UzJI5CwL8WS3mOBy_zjQ8DW8pA9qp3cnHSTLoMN2rfnpNkcJNQqlUPH4q&amp;__xts__%5B0%5D=68.ARAPQOTneAmtLa22bOj3YK5xa8HXXKBpcDEafBtiXemZm-LYnmZ1CMjbADgQCQXtlqbuzFBrH42IlxeXO18SlMm1MyjXrLthrKIHpCO33Nk8L80-kg0FTh1c4Z4SNTvWSvh0wNdh9ZZ7fEocv3dE59kAIOzuvS6SjEtJVxYMZ34hawVZJlpQkNJ-JbBNt6Y-SWwKE40iXFS_5RaTJOhKSJ8wEBa6l5MM9cmiOHZP24Rr5xVsgnsje2VTdj4iFfpSc9qbmJs9fCZ-WTFBHyEffomiDDXbtU6QBcpuDeUhrQFCgdc0Ad0QPIgwqrG8Mc7p895ofYILvFifglgQQDmOibFWPw&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hipertensión arterial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1113959772324381/?type=3&amp;eid=ARBXawXU6bOQ4xFYlYjo65Y_YQyJRP4hua1-0CZTRga2Am90zb6Oce33vlb22543Gl38h1gL5GcRJjf4&amp;__xts__%5B0%5D=68.ARDDhMEATbp1VtbuptrokBNKKPZA1YMRac-S-aY3y8sTrxRLZPbqtiv8f4UbnAnuEjn6QeqdUYWAQ7c8lGpceQgKXruxY94284-HdbNzfmaMPlBuI7jXwa2MQEISlub925X6yabdYc-B6i7cfG3Z3xodEEr0EmEbrV9SnXhA0gvaZgndeSq5bSoLGk-AZ8Q7vgMmWk9OxMpKX2E4GzUQiyWEFxnCRgVnYjvmqSTxQm0uYnHb8UiKRJarcY_pa7D8hnwiDsH9yEAtLjxzyAJk-xK2HcHvQmYBXs6lOl5YcKToeou56K-qw9Jib97ujz-C_igIKG5gzSXSGoIbNFuYjK8jFA&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1112995489087476/?type=3&amp;eid=ARDSY6LVXNVAFd-RJZ8m4HwH3KCpIz-1eXbIirfGrwJUqerjSQkKH_oGkekUioy_4vbQZ0V8lw3SzPCu&amp;__xts__%5B0%5D=68.ARA4qkEgzD4vGTvl0M81JXxUXndfE1ZK9ZyKfu2abTDTzy6d_NpFG2Pyr8QHRQ8Ezp5fQbn41F-wy2V5pH5N24p477hoMm4C2xbyx-BhPB-JOcxLX40Q4XzYQSTGvK4OpEMFyc5nY95bKFEWt-f5io9YYQRmO_dzm35fqGK1G-KAkzsleGYA6gzuCX0VaidwbAmYQ5ji3iHiysiILhXTLhO7O1cE_QrISIMGjEcjtpRQ6Bpynzeq9MPdGOooM-nDS8SYbjEZwQaPzK1OXfJLudQZ0OdJhEGGb6a9uoqqHZKfAWH2WTd8OXFEXDFaPdIVj6qpldUXqG80vaZ2JNlsIOm53Q&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital III Iquitos de EsSalud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1112512512469107/?type=3&amp;eid=ARAzjvHK1HvdzOShTTyAiM3zfwP4PsOYS0epFwOqLZ9X7MomNQz2Wwwa7gqHEaD8415LboL92UuKEKuA&amp;__xts__%5B0%5D=68.ARBGtGAe03bxJVrLxDYxBcbQ7q0DjvpL9t59jhpiKcfIKBeuOLxSsWHDILWHtHFUQKaO_h9ljH_nduQWheheOQ_sl71aWxNDy5yncwrtocMmBg_rJhqY_P2gDmVMYCxm0OrSwfmKxbYUgDIDqYPf0sjBMtffGchqJV1MxVEA3xxGOm3NqHn-NC0qKv-PS1CQqxKCBhSfKeoF7gMhh8IGaS5HDtnD_X58F1k_ZPkmeN8AHa6rXu-badyTRifpTA9ZJoMpdDx9uKI58qNwsFiS3RH-2R8BM2H2c720K3qfubs3i7WNE9Whi7R--k4rsJsDtWTPLDJb5sSr2R3yr6Mj5yArYQ&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfermedad pulmonar cronica,Hipertension arterial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1111718969215128/?type=3&amp;eid=ARAGuIXuPOjebVI9rc2Dw4nEJhZMhI-VP8Z01WVwnDH8D7DWAvLQv3xm8OjJkZZr7DXvuZLNdWgbSxKi&amp;__xts__%5B0%5D=68.ARAQ3N8EP97wCL0SSyZDSv7KB1qPiIEQgdkOv2JJkQYC_QaDtv8g6JGgqd5fN8nlbTmGhmEWy2_GeQijbTrKN59zsPl_cY9f6Ko8h0NR7cUFh5EIr6Vd7sqAg3UBxTA7xvf2TXyTO9Iwu6l_kN521FMfmXgxhffumc6xyeSov3TbMQxmnInsiw8hKawkU48TnDn05JEcp4I1gk_OFGqXkdIUFE-3-B5cCx5VWQzdu1cqBG8Y0bWGL5q7S-wNRgO4iUpe0b6aKVJFjY-tCqo_k5KZSQ8lg_a5SDijzJz-GYVCq_A4GVs095Ow6SOrAucmv-Cw8JIn7NFj0mMZnK2HscoY8g&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hipertensión arterial,diabetes mellitus tipo 2,cardiopatia isquemica,enfermedad renal cronica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1111046729282352/?type=3&amp;eid=ARC1OKabr2HfseGem9qn73oohegklPsA2TiK5w3bIuFKT0-baKfZmVePVmL1JDNkHEdIHNoDm0_hoQcO&amp;__xts__%5B0%5D=68.ARDUYQ73KGHJreDWk--UdceHOn3OqO7CgSKJw3pMajUxmJKbuGjV2AVGkBLP3KNorY0HIwoPjoAVGf4DyHBC9U8aEMRxy_qHmpcWvG0vFxE0FYdrmZaDn96DaQD3JDpAtkXoltIXob9Jf-kqrqhbMlOW_9PCv8i-3EuS1fTJPjmYSrOy_8RTlo9lyI_c4TpEvCFF-IYEjp0Y6GxE0uUReg4XpPhFpuoAg_LtrrF90tw7AYYFW0WC8mDB9kzRKC1P6OtjWZ-YMDqau3NcZKkgUD2taEGoo5ieeMCY2gAxoGKgf0yTjrv1UQO_tBHfwvHphhXuv9fpmBnsoEYwenOb0jn7OA&amp;__tn__=EEHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diabetes mellitus tipo 2,asma,Obesidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaLoreto.ImagenInstitucional/photos/a.781249492262079/1109343522786006/?type=3&amp;eid=ARDSxjwbSI_MWZgl7rWTRx55B3yRanuGj9qOKD9pey3bG7vQkw5gfpko9MFd2QgBb_Nyz_sUtaG7RKtN&amp;__xts__%5B0%5D=68.ARDk4Qv6JXi8QlinJ5CFl3GQHVjjnMytmDz2rYPHqHCtAAHAHxjcHVMi_HRyJKRk30qmr6GOasDxq47sO_Au_SAWppEqjDTVmC_mUYX-CVNgAnkNdWbwEO_Hf-P1EknXkFqwaIhU8cV2QUCbH1gYuSfbJb7j4ucKnMdJzeduxsnlVE0oXYCnDMKku16jeFv5HoieMJEUrFzN1COIxizlXST7l81_xkDv83PGpKcfSlP33diwLzSOiEhk7pI7EatuVZccr76GqyQvDO2QtvUzqKWAfwxWcyFYquZE0w89tvXDI8XppxK1HWr1d3_MEecPOcmiqlrGMDXSel0k2yJpiPmbKA&amp;__tn__=EEHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obesidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/111625-el-ministerio-de-salud-lamenta-informar-el-sensible-fallecimiento-de-seis-personas-por-infeccion-con-covid-19-comunicado-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diabetes mellitus tipo 2,Obesidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMG</t>
-  </si>
-  <si>
     <t xml:space="preserve">TUMBES</t>
   </si>
   <si>
@@ -170,9 +413,6 @@
     <t xml:space="preserve">Otras enfermedades no especificadas</t>
   </si>
   <si>
-    <t xml:space="preserve">Domicilio</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.facebook.com/GobTumbesDiresa/photos/a.2324199077813058/2662668553966107/?type=3&amp;theater</t>
   </si>
   <si>
@@ -227,156 +467,6 @@
     <t xml:space="preserve">https://www.facebook.com/GobTumbesDiresa/photos/rpp.2311164252449874/2670711006495195/?type=3&amp;theater</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMA PROVINCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital de Chancay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3066800496710577/3066800396710587/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Regional de Huacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Rezola de Cañete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital II ESSALUD Cañete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital de Ate Vitarte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3068490689874891/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pb.481175221939797.-2207520000../3076203655770261/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pb.481175221939797.-2207520000../3075737945816832/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3080699851987308/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.481187195271933/3080697071987586/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.481187195271933/3080679831989310/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital II Gustavo Lanatta Lujan ESSALUD Huacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3085242148199745/3085241941533099/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3085242148199745/3085242014866425/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/pcb.3085242148199745/3085242104866416/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3085819911475302/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresalimaoficial/photos/a.971162862941028/3087388347985125/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA LIBERTAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Regional Docente de Trujillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/111529-minsa-lamenta-informar-el-sensible-fallecimiento-de-dos-personas-por-infeccion-con-covid-19-comunicado-n-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital de Alta Complejidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/GRLaLibertad/photos/a.884179731605039/2993777047311953/?type=3&amp;eid=ARD9CvZAOecSZYOeGM1UFSshxkcwCL7o5mvoGP7sloP4PaUdmqSSTRsHBdb08efN-xcBX4ddPFGebMZ_&amp;__xts__%5B0%5D=68.ARCldH_hzOagkI3koizOnZz3AW7rYJdpRJhSFGTG39EdvEYE-np5hT2GSYj2QecvUqlg1IKcBfySC4c9gzIoTUa0akKiidqAFeq96WjF_vwQBjhADU0d1DohZ9heOOT6wsLDXS6rA818E-H-5PRuiG3lv-iQHwSr5Jxcg8IMDCFD_NiipQXHS1Z-NxvAAVmowm2SVXRsjwltO8iTRz54xCczXCK2hvy_CsT4J-Pc9hUNenu1TPUH_kgEavYzWTe4LZmf0B8HNzbf4fRkfUVqH5w8QIc_GlnOOT_9N-cbDPLqmdVDlv1lwemiNDNzgg0S0el_8llpAL07JjR_zG8H0pud8w&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Virgen de La Puerta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pbs.twimg.com/media/EUjkC3RWoAUrRQr?format=png&amp;name=900x900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREQUIPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Goyeneche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/photos/a.873873296059170/2842647769181703/?type=3&amp;eid=ARAAFtqP5fDKB2UR0QDnvMdGoR8vKlHK86T9a8HariDuMkO8oHTipBvrgI7h6G9--Gnm5VGkzTmVZBus&amp;__xts__%5B0%5D=68.ARASQJ6qd2KZeJH0z9LNLs_swj6zG-RkGASh4ShEjDJ1BmuzoAeYFQYqgL_WcsGQcEkgri8YQZlF-V8gyqwTBL3aOkShiEiX3kemwi20tlkTJbPVtqWvvkqAOqHQOo7WKBmm0Oj1ihmahBl67MQybeCOFRQFN4lAap4rAdff3XwRaJO_V_ML_cs8FXeFBQWPjG2_dHO5zaSHb_lmeYLg85e-LtUJ1E0I-5bRzQjnupLvDemrGxBgZyiubywsa9pgESKakk9GXK9eKjWC4bhtS1lF70phTy_npH34Qu6C-fj1M212UujkfbZoMkQZzwaK78TQB9TaDngHUQR67kyfsWYccQ&amp;__tn__=EHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Carlos Alberto Seguin Escobedo de ESSALUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Central de Majes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/photos/a.873873296059170/2838120996301047/?type=3&amp;eid=ARB4PRgvKmDnnXeUWrl2-MlSesmdSZgL1cv0m9B2cPDM1Xcq7gUPNwwCc0CCm2iSAtX_YQrJ7HCBETHj&amp;__xts__%5B0%5D=68.ARAp7AxTzsw6BqwN7GTH8klEbTVr_Y1s8CaBdhD4jMUoZwT3Zmv0ONLWKHV4dyQhb_JX6bdNYrxs7OXK_DqyNqWVHAun1WyA7yqCA4TNyp6YfyIwCA6GpBhVeYHMcLn58VRZf35BKxkMvAkHfIJq_bCHAWU6Ay5NTumz87KMeXWXir-sGOBSiIc6V6KenTBdq1E-JArcApMqtY5bB7zwTAsdpJPRJ0lPszzTN1MmdmDAon0NOp_1yiG7k4BJf6JkZfbwJEAxTBsZ1E6mE7gyCDZ5x_22Xs_kPUAPDVQuYSqQccGM0OhQQmvn4gmxJqVy3IIOh_LyfoFq6qdco-LPtE0Xmg&amp;__tn__=EEHH-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/111750-minsa-lamenta-el-sensible-fallecimiento-de-nueve-personas-por-infeccion-con-covid-19-comunicado-n-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAJAMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obesidad mórbida y diabetes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Simón Bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresacajamarcaoficial/posts/2850732971677648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/p960x960/93143400_3042156025807388_534911586574270464_o.png?_nc_cat=1&amp;_nc_sid=8024bb&amp;_nc_ohc=EMR0eLI-p8cAX_ZwwLn&amp;_nc_ht=scontent.flim10-1.fna&amp;oh=58fc5153c886f2399460dcb4dde7aa3c&amp;oe=5EBAE843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scontent.flim10-1.fna.fbcdn.net/v/t1.0-9/p960x960/93691584_3039767969379527_7966036643171794944_o.png?_nc_cat=104&amp;_nc_sid=8024bb&amp;_nc_ohc=n7KP4Cth8AoAX9EdDZx&amp;_nc_ht=scontent.flim10-1.fna&amp;oh=596717d4a6701a5daecf8634a31ab999&amp;oe=5EBC3E7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUSCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.diresacusco.gob.pe/new/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital III de EsSalud de Chimbote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://diresancash.gob.pe/portal/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital regional Eleazar Guzman Barron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Nacional Ramiro Priale Priale -Essalud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Regional Docente de Medicina Tropical JCDC</t>
-  </si>
-  <si>
     <t xml:space="preserve">UCAYALI</t>
   </si>
   <si>
@@ -386,52 +476,10 @@
     <t xml:space="preserve">https://www.facebook.com/region.deucayali/posts/2575215222796831</t>
   </si>
   <si>
-    <t xml:space="preserve">LMVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Simon Bolivaró</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/225561424194829/posts/2857404431010502/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Simon Bolivar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/diresacajamarcaoficial/posts/2857404431010502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanidad de la PNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intoxicación por organofosforados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/GerenciaSaludArequipa/photos/a.888177091295457/2868042699975543/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Regional Daniel Alcides Carrión García</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaPasco063/photos/a.451754444984919/1495870670573286/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/DiresaPasco063/photos/a.451754444984919/1498828016944218/?type=3&amp;theater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Regional Eleazar Guzman Barron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Victor Ramos Guardia</t>
+    <t xml:space="preserve">Hospital III EsSalud Chimbote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de Yungay</t>
   </si>
 </sst>
 </file>
@@ -811,28 +859,24 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43947</v>
+        <v>43937</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>43917</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="n">
-        <v>43925</v>
+        <v>43936</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -840,29 +884,27 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>43937</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>43947</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="n">
-        <v>43944</v>
+        <v>43936</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -870,31 +912,27 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43946</v>
+        <v>43942</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>43945</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="n">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -902,31 +940,27 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43935</v>
+        <v>43942</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F5"/>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>43940</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="n">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -934,29 +968,27 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43936</v>
+        <v>43942</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>43933</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="n">
-        <v>43934</v>
+        <v>43942</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -964,31 +996,27 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43934</v>
+        <v>43943</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>43932</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1" t="n">
-        <v>43933</v>
+        <v>43943</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -996,31 +1024,27 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43932</v>
+        <v>43943</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>43930</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="n">
-        <v>43931</v>
+        <v>43943</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1028,31 +1052,27 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43932</v>
+        <v>43944</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>43915</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="n">
-        <v>43931</v>
+        <v>43944</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1060,29 +1080,27 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>43932</v>
+        <v>43944</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>43925</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="n">
-        <v>43930</v>
+        <v>43944</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1090,31 +1108,27 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43932</v>
+        <v>43945</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>43922</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1" t="n">
-        <v>43929</v>
+        <v>43945</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1122,31 +1136,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43932</v>
+        <v>43945</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>43917</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="n">
-        <v>43928</v>
+        <v>43945</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1154,31 +1164,27 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43932</v>
+        <v>43945</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>43922</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1" t="n">
-        <v>43926</v>
+        <v>43945</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1186,29 +1192,27 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43932</v>
+        <v>43945</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="n">
-        <v>43920</v>
+        <v>43945</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1216,1001 +1220,951 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43932</v>
+        <v>43947</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F15"/>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="n">
-        <v>43920</v>
+        <v>43947</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43932</v>
+        <v>43947</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>43928</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1" t="n">
-        <v>43932</v>
+        <v>43947</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F17"/>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="n">
-        <v>43931</v>
+        <v>43950</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="n">
-        <v>43930</v>
+        <v>43950</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>43921</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1" t="n">
-        <v>43927</v>
+        <v>43950</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="n">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="n">
-        <v>43922</v>
+        <v>43950</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="n">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43933</v>
+        <v>43951</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F23"/>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="n">
-        <v>43933</v>
+        <v>43950</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43934</v>
+        <v>43951</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="n">
-        <v>43934</v>
+        <v>43950</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>43935</v>
+        <v>43951</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="n">
-        <v>43934</v>
+        <v>43950</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>43939</v>
+        <v>43951</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="n">
-        <v>43938</v>
+        <v>43950</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43940</v>
+        <v>43951</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="n">
-        <v>43939</v>
+        <v>43950</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43940</v>
+        <v>43951</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="n">
-        <v>43940</v>
+        <v>43950</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43940</v>
+        <v>43951</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>65</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F29"/>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="n">
-        <v>43940</v>
+        <v>43950</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>43920</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="n">
-        <v>43932</v>
+        <v>43950</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>43928</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1" t="n">
-        <v>43931</v>
+        <v>43950</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43932</v>
+        <v>43951</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>43930</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1" t="n">
-        <v>43930</v>
+        <v>43950</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43932</v>
+        <v>43955</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>43913</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="n">
-        <v>43930</v>
+        <v>43954</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43932</v>
+        <v>43955</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
         <v>81</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>43925</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1" t="n">
-        <v>43929</v>
+        <v>43954</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43932</v>
+        <v>43955</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>43923</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1" t="n">
-        <v>43926</v>
+        <v>43954</v>
       </c>
       <c r="J35" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43932</v>
+        <v>43955</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>43912</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1" t="n">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="J36" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>43932</v>
+        <v>43955</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>43920</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="1" t="n">
-        <v>43922</v>
+        <v>43954</v>
       </c>
       <c r="J37" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43933</v>
+        <v>43955</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>43929</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1" t="n">
-        <v>43932</v>
+        <v>43954</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43937</v>
+        <v>43955</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>43935</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" s="1" t="n">
-        <v>43936</v>
+        <v>43954</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43937</v>
+        <v>43955</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="n">
+        <v>43954</v>
+      </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43939</v>
+        <v>43957</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>43936</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1" t="n">
-        <v>43938</v>
+        <v>43955</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43939</v>
+        <v>43957</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="n">
-        <v>43937</v>
+        <v>43955</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43939</v>
+        <v>43957</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>43933</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1" t="n">
-        <v>43937</v>
+        <v>43955</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43940</v>
+        <v>43957</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>43938</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1" t="n">
-        <v>43939</v>
+        <v>43955</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43940</v>
+        <v>43957</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>43939</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="1" t="n">
-        <v>43939</v>
+        <v>43955</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43940</v>
+        <v>43957</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>43932</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="1" t="n">
-        <v>43938</v>
+        <v>43955</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43942</v>
+        <v>43957</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="n">
-        <v>43940</v>
+        <v>43955</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43942</v>
+        <v>43957</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>43940</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="1" t="n">
-        <v>43940</v>
+        <v>43955</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2218,29 +2172,27 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43933</v>
+        <v>43957</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>43916</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="1" t="n">
-        <v>43916</v>
+        <v>43957</v>
       </c>
       <c r="J49" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -2248,29 +2200,27 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43933</v>
+        <v>43957</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>43912</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1" t="n">
-        <v>43914</v>
+        <v>43957</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2278,27 +2228,27 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43933</v>
+        <v>43957</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="n">
-        <v>43921</v>
+        <v>43957</v>
       </c>
       <c r="J51" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -2306,27 +2256,27 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43933</v>
+        <v>43957</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="n">
-        <v>43925</v>
+        <v>43957</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2334,27 +2284,27 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43933</v>
+        <v>43957</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="n">
-        <v>43925</v>
+        <v>43957</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -2362,27 +2312,27 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43933</v>
+        <v>43959</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="n">
-        <v>43919</v>
+        <v>43959</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2390,57 +2340,55 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43933</v>
+        <v>43959</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="n">
-        <v>43921</v>
+        <v>43959</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43934</v>
+        <v>43959</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F56"/>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="n">
-        <v>43934</v>
+        <v>43959</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -2448,25 +2396,27 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43934</v>
+        <v>43959</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57"/>
-      <c r="G57"/>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="n">
-        <v>43934</v>
+        <v>43959</v>
       </c>
       <c r="J57" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -2474,25 +2424,27 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43934</v>
+        <v>43960</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E58" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F58"/>
-      <c r="G58"/>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="n">
-        <v>43934</v>
+        <v>43960</v>
       </c>
       <c r="J58" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -2500,410 +2452,448 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43934</v>
+        <v>43960</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F59"/>
-      <c r="G59"/>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="n">
-        <v>43933</v>
+        <v>43960</v>
       </c>
       <c r="J59" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43936</v>
-      </c>
-      <c r="D60"/>
+        <v>43960</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F60"/>
-      <c r="G60"/>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1" t="n">
+        <v>43960</v>
+      </c>
       <c r="J60" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43937</v>
+        <v>43960</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="n">
-        <v>43936</v>
+        <v>43960</v>
       </c>
       <c r="J61" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43937</v>
+        <v>43946</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>48</v>
-      </c>
-      <c r="F62"/>
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
       <c r="G62" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>43945</v>
+      </c>
       <c r="I62" s="1" t="n">
-        <v>43936</v>
+        <v>43945</v>
       </c>
       <c r="J62" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="E63"/>
-      <c r="F63"/>
+      <c r="E63" t="n">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
       <c r="G63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>43940</v>
+      </c>
       <c r="I63" s="1" t="n">
-        <v>43935</v>
-      </c>
-      <c r="J63"/>
+        <v>43940</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64"/>
+      <c r="E64" t="n">
+        <v>70</v>
+      </c>
       <c r="F64"/>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64"/>
+      <c r="I64" s="1" t="n">
+        <v>43925</v>
+      </c>
+      <c r="J64" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65"/>
+        <v>12</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63</v>
+      </c>
       <c r="F65"/>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65"/>
+      <c r="I65" s="1" t="n">
+        <v>43925</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="n">
-        <v>43936</v>
+        <v>43919</v>
       </c>
       <c r="J66" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43937</v>
+        <v>43933</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="n">
-        <v>43936</v>
+        <v>43921</v>
       </c>
       <c r="J67" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" t="n">
-        <v>82</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1" t="n">
-        <v>43937</v>
-      </c>
+      <c r="I68" s="1"/>
       <c r="J68" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1" t="n">
-        <v>43937</v>
-      </c>
+      <c r="I69" s="1"/>
       <c r="J69" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>43938</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>15</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>38</v>
+      </c>
       <c r="G70" t="s">
-        <v>130</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>43937</v>
+      </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43938</v>
+        <v>43926</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>65</v>
-      </c>
-      <c r="F71"/>
+        <v>75</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
       <c r="G71" t="s">
-        <v>98</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>43954</v>
+      </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43938</v>
+        <v>43934</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
-      </c>
-      <c r="H72" s="1" t="n">
-        <v>43926</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H72" s="1"/>
       <c r="I72" s="1" t="n">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="J72" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="n">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="J73" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="s">
@@ -2911,822 +2901,2240 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="n">
-        <v>43942</v>
+        <v>43937</v>
       </c>
       <c r="J74" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43942</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="D75"/>
       <c r="E75" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="F75"/>
-      <c r="G75" t="s">
-        <v>115</v>
-      </c>
+      <c r="G75"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1" t="n">
-        <v>43942</v>
-      </c>
+      <c r="I75" s="1"/>
       <c r="J75" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43942</v>
+        <v>43947</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>74</v>
-      </c>
-      <c r="F76"/>
+        <v>58</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
       <c r="G76" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>43917</v>
+      </c>
       <c r="I76" s="1" t="n">
-        <v>43942</v>
+        <v>43925</v>
       </c>
       <c r="J76" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>43942</v>
+        <v>43956</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>115</v>
-      </c>
-      <c r="H77" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>43947</v>
+      </c>
       <c r="I77" s="1" t="n">
-        <v>43942</v>
+        <v>43956</v>
       </c>
       <c r="J77" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43943</v>
+        <v>43956</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>43942</v>
+      </c>
       <c r="I78" s="1" t="n">
-        <v>43943</v>
+        <v>43955</v>
       </c>
       <c r="J78" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43943</v>
+        <v>43956</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>43945</v>
+      </c>
       <c r="I79" s="1" t="n">
-        <v>43943</v>
+        <v>43955</v>
       </c>
       <c r="J79" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="n">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
         <v>64</v>
       </c>
-      <c r="F80"/>
       <c r="G80" t="s">
-        <v>115</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>43950</v>
+      </c>
       <c r="I80" s="1" t="n">
-        <v>43944</v>
+        <v>43952</v>
       </c>
       <c r="J80" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="n">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="J81" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43945</v>
+        <v>43937</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="E82" t="n">
-        <v>64</v>
-      </c>
+      <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="J82" t="s">
-        <v>116</v>
-      </c>
+        <v>43935</v>
+      </c>
+      <c r="J82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43945</v>
+        <v>43937</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" t="n">
-        <v>70</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="J83" t="s">
-        <v>116</v>
-      </c>
+      <c r="I83" s="1"/>
+      <c r="J83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43945</v>
+        <v>43937</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" t="n">
-        <v>53</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E84"/>
       <c r="F84"/>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="J84" t="s">
-        <v>116</v>
-      </c>
+      <c r="I84" s="1"/>
+      <c r="J84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43945</v>
+        <v>43933</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>138</v>
-      </c>
-      <c r="H85" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>43916</v>
+      </c>
       <c r="I85" s="1" t="n">
-        <v>43945</v>
+        <v>43916</v>
       </c>
       <c r="J85" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43947</v>
+        <v>43933</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="s">
-        <v>139</v>
-      </c>
-      <c r="H86" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>43912</v>
+      </c>
       <c r="I86" s="1" t="n">
-        <v>43947</v>
+        <v>43914</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43947</v>
+        <v>43933</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="n">
-        <v>43947</v>
+        <v>43921</v>
       </c>
       <c r="J87" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43951</v>
+        <v>43934</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F88"/>
-      <c r="G88" t="s">
-        <v>138</v>
-      </c>
+      <c r="G88"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="n">
-        <v>43950</v>
+        <v>43934</v>
       </c>
       <c r="J88" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43951</v>
+        <v>43934</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F89"/>
-      <c r="G89" t="s">
-        <v>138</v>
-      </c>
+      <c r="G89"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="n">
-        <v>43950</v>
+        <v>43934</v>
       </c>
       <c r="J89" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>43951</v>
+        <v>43934</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F90"/>
-      <c r="G90" t="s">
-        <v>138</v>
-      </c>
+      <c r="G90"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1" t="n">
-        <v>43950</v>
+        <v>43933</v>
       </c>
       <c r="J90" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
-        <v>138</v>
-      </c>
-      <c r="H91" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>43920</v>
+      </c>
       <c r="I91" s="1" t="n">
-        <v>43950</v>
+        <v>43932</v>
       </c>
       <c r="J91" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>138</v>
-      </c>
-      <c r="H92" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>43928</v>
+      </c>
       <c r="I92" s="1" t="n">
-        <v>43950</v>
+        <v>43931</v>
       </c>
       <c r="J92" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="s">
-        <v>138</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>43930</v>
+      </c>
       <c r="I93" s="1" t="n">
-        <v>43950</v>
+        <v>43930</v>
       </c>
       <c r="J93" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>43913</v>
+      </c>
       <c r="I94" s="1" t="n">
-        <v>43950</v>
+        <v>43930</v>
       </c>
       <c r="J94" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E95" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="s">
-        <v>138</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>43925</v>
+      </c>
       <c r="I95" s="1" t="n">
-        <v>43950</v>
+        <v>43929</v>
       </c>
       <c r="J95" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>138</v>
-      </c>
-      <c r="H96" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>43923</v>
+      </c>
       <c r="I96" s="1" t="n">
-        <v>43950</v>
+        <v>43926</v>
       </c>
       <c r="J96" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>138</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>43912</v>
+      </c>
       <c r="I97" s="1" t="n">
-        <v>43950</v>
+        <v>43924</v>
       </c>
       <c r="J97" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>43951</v>
+        <v>43932</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>138</v>
-      </c>
-      <c r="H98" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>43920</v>
+      </c>
       <c r="I98" s="1" t="n">
-        <v>43950</v>
+        <v>43922</v>
       </c>
       <c r="J98" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>43951</v>
+        <v>43933</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>138</v>
-      </c>
-      <c r="H99" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>43929</v>
+      </c>
       <c r="I99" s="1" t="n">
-        <v>43950</v>
+        <v>43932</v>
       </c>
       <c r="J99" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>43951</v>
+        <v>43937</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>138</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>43935</v>
+      </c>
       <c r="I100" s="1" t="n">
-        <v>43950</v>
+        <v>43936</v>
       </c>
       <c r="J100" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>43951</v>
+        <v>43937</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E101" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="1" t="n">
-        <v>43950</v>
-      </c>
+      <c r="I101" s="1"/>
       <c r="J101" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>43951</v>
+        <v>43939</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>138</v>
-      </c>
-      <c r="H102" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>43936</v>
+      </c>
       <c r="I102" s="1" t="n">
-        <v>43950</v>
+        <v>43938</v>
       </c>
       <c r="J102" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>43951</v>
+        <v>43939</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="n">
-        <v>43950</v>
+        <v>43937</v>
       </c>
       <c r="J103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>43939</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="n">
+        <v>58</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>85</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>43933</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>43937</v>
+      </c>
+      <c r="J104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="n">
+        <v>82</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>43938</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>43939</v>
+      </c>
+      <c r="J105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="n">
+        <v>69</v>
+      </c>
+      <c r="F106"/>
+      <c r="G106" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>43939</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>43939</v>
+      </c>
+      <c r="J106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="n">
+        <v>57</v>
+      </c>
+      <c r="F107"/>
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>43938</v>
+      </c>
+      <c r="J107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>43942</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="n">
+        <v>69</v>
+      </c>
+      <c r="F108"/>
+      <c r="G108" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="J108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>43942</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="n">
+        <v>60</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" t="s">
+        <v>85</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="J109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>43936</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="n">
+        <v>92</v>
+      </c>
+      <c r="F110"/>
+      <c r="G110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>43933</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>43934</v>
+      </c>
+      <c r="J110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>43934</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="n">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s">
+        <v>103</v>
+      </c>
+      <c r="G111" t="s">
+        <v>101</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>43933</v>
+      </c>
+      <c r="J111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="n">
+        <v>76</v>
+      </c>
+      <c r="F112" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>43930</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>43931</v>
+      </c>
+      <c r="J112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="n">
+        <v>58</v>
+      </c>
+      <c r="F113" t="s">
+        <v>103</v>
+      </c>
+      <c r="G113" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>43915</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>43931</v>
+      </c>
+      <c r="J113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="n">
+        <v>33</v>
+      </c>
+      <c r="F114"/>
+      <c r="G114" t="s">
+        <v>108</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>43925</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>43930</v>
+      </c>
+      <c r="J114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="n">
+        <v>69</v>
+      </c>
+      <c r="F115" t="s">
+        <v>110</v>
+      </c>
+      <c r="G115" t="s">
+        <v>101</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>43929</v>
+      </c>
+      <c r="J115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="n">
+        <v>79</v>
+      </c>
+      <c r="F116" t="s">
+        <v>112</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>43917</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>43928</v>
+      </c>
+      <c r="J116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D117" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" t="n">
+        <v>40</v>
+      </c>
+      <c r="F117" t="s">
+        <v>114</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="J117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="n">
+        <v>56</v>
+      </c>
+      <c r="F118" t="s">
         <v>116</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1" t="n">
+        <v>43920</v>
+      </c>
+      <c r="J118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="n">
+        <v>63</v>
+      </c>
+      <c r="F119" t="s">
+        <v>118</v>
+      </c>
+      <c r="G119" t="s">
+        <v>101</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="n">
+        <v>43920</v>
+      </c>
+      <c r="J119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
+        <v>88</v>
+      </c>
+      <c r="F120"/>
+      <c r="G120" t="s">
+        <v>120</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1" t="n">
+        <v>43938</v>
+      </c>
+      <c r="J120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>43942</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="n">
+        <v>68</v>
+      </c>
+      <c r="F121"/>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1" t="n">
+        <v>43942</v>
+      </c>
+      <c r="J121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>43866</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="n">
+        <v>56</v>
+      </c>
+      <c r="F122" t="s">
+        <v>124</v>
+      </c>
+      <c r="G122" t="s">
+        <v>125</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="J122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>43947</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="n">
+        <v>74</v>
+      </c>
+      <c r="F123" t="s">
+        <v>127</v>
+      </c>
+      <c r="G123" t="s">
+        <v>125</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1" t="n">
+        <v>43944</v>
+      </c>
+      <c r="J123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39</v>
+      </c>
+      <c r="F124"/>
+      <c r="G124" t="s">
+        <v>130</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>43928</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="J124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="n">
+        <v>83</v>
+      </c>
+      <c r="F125" t="s">
+        <v>132</v>
+      </c>
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1" t="n">
+        <v>43931</v>
+      </c>
+      <c r="J125" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="n">
+        <v>87</v>
+      </c>
+      <c r="F126"/>
+      <c r="G126" t="s">
+        <v>134</v>
+      </c>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1" t="n">
+        <v>43930</v>
+      </c>
+      <c r="J126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="n">
+        <v>70</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127" t="s">
+        <v>130</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>43921</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>43927</v>
+      </c>
+      <c r="J127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>68</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="n">
+        <v>58</v>
+      </c>
+      <c r="F128"/>
+      <c r="G128" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1" t="n">
+        <v>43924</v>
+      </c>
+      <c r="J128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" t="n">
+        <v>58</v>
+      </c>
+      <c r="F129"/>
+      <c r="G129" t="s">
+        <v>130</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="J129" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>43932</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="n">
+        <v>46</v>
+      </c>
+      <c r="F130"/>
+      <c r="G130" t="s">
+        <v>139</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1" t="n">
+        <v>43920</v>
+      </c>
+      <c r="J130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>43933</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="n">
+        <v>63</v>
+      </c>
+      <c r="F131" t="s">
+        <v>105</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1" t="n">
+        <v>43933</v>
+      </c>
+      <c r="J131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>43934</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="n">
+        <v>65</v>
+      </c>
+      <c r="F132" t="s">
+        <v>142</v>
+      </c>
+      <c r="G132" t="s">
+        <v>130</v>
+      </c>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1" t="n">
+        <v>43934</v>
+      </c>
+      <c r="J132" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>43935</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="n">
+        <v>79</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133" t="s">
+        <v>130</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1" t="n">
+        <v>43934</v>
+      </c>
+      <c r="J133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>68</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>43939</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87</v>
+      </c>
+      <c r="F134" t="s">
+        <v>142</v>
+      </c>
+      <c r="G134" t="s">
+        <v>130</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1" t="n">
+        <v>43938</v>
+      </c>
+      <c r="J134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>68</v>
+      </c>
+      <c r="B135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="n">
+        <v>62</v>
+      </c>
+      <c r="F135" t="s">
+        <v>146</v>
+      </c>
+      <c r="G135" t="s">
+        <v>130</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1" t="n">
+        <v>43939</v>
+      </c>
+      <c r="J135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="n">
+        <v>49</v>
+      </c>
+      <c r="F136" t="s">
+        <v>148</v>
+      </c>
+      <c r="G136" t="s">
+        <v>130</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="J136" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" t="n">
+        <v>65</v>
+      </c>
+      <c r="F137" t="s">
+        <v>116</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="J137" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>43937</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="n">
+        <v>54</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138" t="s">
+        <v>152</v>
+      </c>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1" t="n">
+        <v>43936</v>
+      </c>
+      <c r="J138" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>43937</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="n">
+        <v>60</v>
+      </c>
+      <c r="F139"/>
+      <c r="G139" t="s">
+        <v>152</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1" t="n">
+        <v>43936</v>
+      </c>
+      <c r="J139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="n">
+        <v>73</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="J140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="n">
+        <v>55</v>
+      </c>
+      <c r="F141"/>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="J141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="n">
+        <v>65</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="n">
+        <v>55</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="n">
+        <v>60</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="J144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="n">
+        <v>72</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" t="n">
+        <v>66</v>
+      </c>
+      <c r="F146"/>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" t="n">
+        <v>57</v>
+      </c>
+      <c r="F147"/>
+      <c r="G147" t="s">
+        <v>154</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" t="n">
+        <v>65</v>
+      </c>
+      <c r="F148"/>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="J148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="n">
+        <v>77</v>
+      </c>
+      <c r="F149"/>
+      <c r="G149" t="s">
+        <v>154</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="J149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="n">
+        <v>83</v>
+      </c>
+      <c r="F150"/>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="J150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="n">
+        <v>43</v>
+      </c>
+      <c r="F151"/>
+      <c r="G151" t="s">
+        <v>155</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="J151" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
